--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C685A867-B631-4AF7-AD05-FFCC74213040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,134 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>PRECONDICIONES</t>
+  </si>
+  <si>
+    <t>DATOS DE ENTRADA</t>
+  </si>
+  <si>
+    <t>NRO.</t>
+  </si>
+  <si>
+    <t>PASO</t>
+  </si>
+  <si>
+    <t>RESULTADO ESPERADO</t>
+  </si>
+  <si>
+    <t>PRIORIDAD</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>Ingresar a https://www.maximus.com.ar/</t>
+  </si>
+  <si>
+    <t>Que se cargue la pagina web acorde a la maqueta.</t>
+  </si>
+  <si>
+    <t>Hacer click en el campo "Buscar…"</t>
+  </si>
+  <si>
+    <t>A traves del focus se ve una linea titilando sobre el campo.</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton con forma de "Lupa"</t>
+  </si>
+  <si>
+    <t>Completar con un producto valido</t>
+  </si>
+  <si>
+    <t>Que nos redireccione hacia la ventana que contenga el producto ingresado.</t>
+  </si>
+  <si>
+    <t>Que se visualice el producto en el campo.</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Paso</t>
+  </si>
+  <si>
+    <t>HM-001</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Buscar un producto valido.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento de la barra de busqueda.</t>
+  </si>
+  <si>
+    <t>Acceso a internet. Explorador Chrome o similar.</t>
+  </si>
+  <si>
+    <t>Producto valido.</t>
+  </si>
+  <si>
+    <t>Busqueda por categoria.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento de la busqueda por categorias.</t>
+  </si>
+  <si>
+    <t>Ninguno.</t>
+  </si>
+  <si>
+    <t>Hacer click en el icono con forma de "3 lineas"</t>
+  </si>
+  <si>
+    <t>Que se visualice una lista con las dintintas categorias.</t>
+  </si>
+  <si>
+    <t>Hacer click en alguno de los filtros.</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren los productos del filtro seleccionado.</t>
+  </si>
+  <si>
+    <t>HM-002</t>
+  </si>
+  <si>
+    <t>HM-003</t>
+  </si>
+  <si>
+    <t>Boton "ARMA TU PC".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton "ARMA TU PC".</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "ARMA TU PC"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se permite comenzar a armar la pc.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +159,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +197,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +561,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="9" max="9" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="17">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="17">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C685A867-B631-4AF7-AD05-FFCC74213040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5B0E7-5989-46B9-B105-EF75DA19BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Que se visualice una lista con las dintintas categorias.</t>
   </si>
   <si>
-    <t>Hacer click en alguno de los filtros.</t>
-  </si>
-  <si>
-    <t>Que se redireccione hacia la ventana donde se encuentren los productos del filtro seleccionado.</t>
-  </si>
-  <si>
     <t>HM-002</t>
   </si>
   <si>
@@ -145,6 +139,150 @@
   </si>
   <si>
     <t>Que se redireccione hacia la ventana donde se permite comenzar a armar la pc.</t>
+  </si>
+  <si>
+    <t>HM-004</t>
+  </si>
+  <si>
+    <t>Alternar modo claro/oscuro.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento de alternar modo claro/oscuro.</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton verde al lado del texto "MODO CLARO"</t>
+  </si>
+  <si>
+    <t>Que se cambie el texto por "MODO OSCURO" y que la pagina cambie su aspecto hacia colores oscuros.</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton verde al lado del texto "MODO OSCURO"</t>
+  </si>
+  <si>
+    <t>Que se cambie el texto por "MODO CLARO" y que la pagina cambie su aspecto hacia colores claros.</t>
+  </si>
+  <si>
+    <t>Carrucel de imagenes.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del carrucel de imagenes.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Que aparezcan/visualicen unas flechas a los costados de la imagen.</t>
+  </si>
+  <si>
+    <t>Posicionar el cursor arriba de la primera imagen del carrucel</t>
+  </si>
+  <si>
+    <t>Hacer click en la "flecha" que se encuentra a la derecha de la imagen</t>
+  </si>
+  <si>
+    <t>Hacer click en la "flecha" que se encuentra a la izquierda de la imagen</t>
+  </si>
+  <si>
+    <t>Que el carrucel funcione y se pase a la siguiente imagen hacia la derecha.</t>
+  </si>
+  <si>
+    <t>Que el carrucel funcione y se pase a la siguiente imagen hacia la izquierda.</t>
+  </si>
+  <si>
+    <t>HM-005</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento de la imagen que contiene el texto "LOS MEJORES PRECIOS"</t>
+  </si>
+  <si>
+    <t>Hacer click en la imagen que contiene el texto "LOS MEJORES PRECIOS"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren los productos con "los mejores precios".</t>
+  </si>
+  <si>
+    <t>HM-006</t>
+  </si>
+  <si>
+    <t>Apartado "PCs Recomendadas".</t>
+  </si>
+  <si>
+    <t>Hacer click en la primera imagen ("PC BASIC") del apartado "PCs Recomendadas"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren las PCs que son de la gama "PC BASIC".</t>
+  </si>
+  <si>
+    <t>Repetir el paso 1 y luego hacer click en la segunda imagen ("PC MEDIA") del apartado "PCs Recomendadas"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren las PCs que son de la gama "PC MEDIA".</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren las PCs que son de la gama "PC ALTA".</t>
+  </si>
+  <si>
+    <t>Repetir el paso 1 y luego hacer click en la tercera imagen ("PC ALTA") del apartado "PCs Recomendadas"</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del apartado "PCs Recomendado"</t>
+  </si>
+  <si>
+    <t>HM-007</t>
+  </si>
+  <si>
+    <t>Apartado "Productos Destacados".</t>
+  </si>
+  <si>
+    <t>Imagen con "LOS MEJORES PRECIOS".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del apartado "Productos Destacados"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren los "productos destacados"</t>
+  </si>
+  <si>
+    <t>Que la pagina siga cargando correctamente acorde a la maqueta.</t>
+  </si>
+  <si>
+    <t>HM-008</t>
+  </si>
+  <si>
+    <t>Apartado "Marcas"</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del apartado "Marcas"</t>
+  </si>
+  <si>
+    <t>Hacer "scroll" hacia abajo hasta encontrar el apartado donde estan las marcas</t>
+  </si>
+  <si>
+    <t>Hacer "scroll" hacia abajo hasta encontrar el apartado "Productos Destacados"</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "Ver Todo" del apartado "Productos Destacados"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren los productos de la categoria seleccionada.</t>
+  </si>
+  <si>
+    <t>Hacer click en la primera categoria de las categorias</t>
+  </si>
+  <si>
+    <t>Repetir el paso 2 y luego seguir con la siguiente categoria hasta pasar por todas.</t>
+  </si>
+  <si>
+    <t>Repetir el paso 2 y luego el paso 3 con la siguiente marca hasta pasar por todas.</t>
+  </si>
+  <si>
+    <t>Hacer click en la primera marca</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana donde se encuentren los productos de la marca seleccionada.</t>
   </si>
 </sst>
 </file>
@@ -219,25 +357,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,42 +374,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,158 +687,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="5" width="34.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1"/>
-    <col min="9" max="9" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.140625" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>34</v>
+      <c r="A6" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>22</v>
@@ -730,150 +856,657 @@
       <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="17">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="H11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="17">
+      <c r="K19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="H20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="63">
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -881,6 +1514,53 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5B0E7-5989-46B9-B105-EF75DA19BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242B15D-87FE-4533-94EC-CFCF6E989848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -195,9 +195,6 @@
     <t>HM-005</t>
   </si>
   <si>
-    <t>Probar el correcto funcionamiento de la imagen que contiene el texto "LOS MEJORES PRECIOS"</t>
-  </si>
-  <si>
     <t>Hacer click en la imagen que contiene el texto "LOS MEJORES PRECIOS"</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>Repetir el paso 1 y luego hacer click en la tercera imagen ("PC ALTA") del apartado "PCs Recomendadas"</t>
   </si>
   <si>
-    <t>Probar el correcto funcionamento del apartado "PCs Recomendado"</t>
-  </si>
-  <si>
     <t>HM-007</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>Imagen con "LOS MEJORES PRECIOS".</t>
   </si>
   <si>
-    <t>Probar el correcto funcionamento del apartado "Productos Destacados"</t>
-  </si>
-  <si>
     <t>Que se redireccione hacia la ventana donde se encuentren los "productos destacados"</t>
   </si>
   <si>
@@ -252,12 +243,6 @@
     <t>HM-008</t>
   </si>
   <si>
-    <t>Apartado "Marcas"</t>
-  </si>
-  <si>
-    <t>Probar el correcto funcionamento del apartado "Marcas"</t>
-  </si>
-  <si>
     <t>Hacer "scroll" hacia abajo hasta encontrar el apartado donde estan las marcas</t>
   </si>
   <si>
@@ -273,16 +258,178 @@
     <t>Hacer click en la primera categoria de las categorias</t>
   </si>
   <si>
-    <t>Repetir el paso 2 y luego seguir con la siguiente categoria hasta pasar por todas.</t>
-  </si>
-  <si>
-    <t>Repetir el paso 2 y luego el paso 3 con la siguiente marca hasta pasar por todas.</t>
-  </si>
-  <si>
     <t>Hacer click en la primera marca</t>
   </si>
   <si>
     <t>Que se redireccione hacia la ventana donde se encuentren los productos de la marca seleccionada.</t>
+  </si>
+  <si>
+    <t>Hacer click en boton "Seguir mi pedido UPS"</t>
+  </si>
+  <si>
+    <t>Que nos redireccione hacia la ventana que contenga la informacion correspondiente a lo solicitado.</t>
+  </si>
+  <si>
+    <t>Hacer click en boton "Seguir mi pedido OCA"</t>
+  </si>
+  <si>
+    <t>Hacer click en boton "Subir comprobante"</t>
+  </si>
+  <si>
+    <t>Hacer click en boton "RMA - Garantia"</t>
+  </si>
+  <si>
+    <t>Hacer click en boton "Ayuda"</t>
+  </si>
+  <si>
+    <t>Boton "seguir mi pedido UPS".</t>
+  </si>
+  <si>
+    <t>Boton "seguir mi pedido OCA".</t>
+  </si>
+  <si>
+    <t>Boton "subir comprobante".</t>
+  </si>
+  <si>
+    <t>Boton "RMA - Garantia".</t>
+  </si>
+  <si>
+    <t>Boton "Ayuda".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton "Seguir mi pedido UPS".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton "Seguir mi pedido OCA".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton "Subir comprobante".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton  "RMA - Garantia".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton  "Ayuda".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton "ingresar".</t>
+  </si>
+  <si>
+    <t>Boton "Ingresar".</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "Ingresar"</t>
+  </si>
+  <si>
+    <t>Que nos redireccione hacia la ventana que contenga los campos para ingresar a nuestra cuenta.</t>
+  </si>
+  <si>
+    <t>Boton "Mi carrito".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton "Mi carrito".</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "Mi carrito"</t>
+  </si>
+  <si>
+    <t>Que se visualice una ventana emergente donde se verian los productos.</t>
+  </si>
+  <si>
+    <t>HM-009</t>
+  </si>
+  <si>
+    <t>HM-010</t>
+  </si>
+  <si>
+    <t>HM-011</t>
+  </si>
+  <si>
+    <t>HM-012</t>
+  </si>
+  <si>
+    <t>HM-013</t>
+  </si>
+  <si>
+    <t>HM-014</t>
+  </si>
+  <si>
+    <t>HM-015</t>
+  </si>
+  <si>
+    <t>HM-016</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia el Whatsapp de la pagina.</t>
+  </si>
+  <si>
+    <t>HM-017</t>
+  </si>
+  <si>
+    <t>HM-018</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia el Messenger de la pagina.</t>
+  </si>
+  <si>
+    <t>HM-019</t>
+  </si>
+  <si>
+    <t>Apartado "Seguinos en Redes".</t>
+  </si>
+  <si>
+    <t>Boton Icono "Whatsapp".</t>
+  </si>
+  <si>
+    <t>Boton Icono "Messenger".</t>
+  </si>
+  <si>
+    <t>Apartado "Marcas".</t>
+  </si>
+  <si>
+    <t>Hacer "scroll" hacia abajo hasta encontrar el apartado donde estan las redes</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton con icono de "Whatsapp" de abajo a la derecha de la pantalla</t>
+  </si>
+  <si>
+    <t>Repetir el paso 2 y luego el paso 3 con la siguiente marca hasta pasar por todas</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton con icono de "Messenger" de abajo a la derecha de la pantalla</t>
+  </si>
+  <si>
+    <t>Hacer click en la primera red social.</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la red social seleccionada.</t>
+  </si>
+  <si>
+    <t>Repetir el paso 2 y luego el paso 3 con la siguiente red social hasta pasar por todas</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento de la imagen que contiene el texto "LOS MEJORES PRECIOS".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del apartado "PCs Recomendado".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del apartado "Productos Destacados".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del apartado "Marcas".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del boton icono "Messenger".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del boton icono "Whatsapp".</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del apartado "Seguinos en Redes".</t>
+  </si>
+  <si>
+    <t>Repetir el paso 2 y luego seguir con la siguiente categoria hasta pasar por todas</t>
   </si>
 </sst>
 </file>
@@ -357,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,9 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -405,6 +549,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,123 +929,137 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
+      <c r="H3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="J3" s="12"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="3" t="s">
+      <c r="A4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20">
+        <v>2</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="J5" s="12"/>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -865,7 +1068,7 @@
       <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -873,88 +1076,102 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
+      <c r="H7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="A8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20">
+        <v>2</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -963,164 +1180,164 @@
       <c r="I10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>36</v>
+      <c r="H11" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="J11" s="12"/>
       <c r="K11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="5">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G16" s="26">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="4">
-        <v>3</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1131,149 +1348,149 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="4">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="J22" s="11"/>
       <c r="K22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1286,281 +1503,924 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J37" s="11"/>
+      <c r="K37" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="4">
+      <c r="J38" s="12"/>
+      <c r="K38" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="4">
+        <v>3</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="4">
         <v>4</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="H45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="C46" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G46" s="28">
         <v>1</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="1">
+      <c r="K46" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="30">
         <v>2</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="4">
+      <c r="H47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="28">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="30">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="28">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="24">
+        <v>2</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="24">
         <v>3</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="1">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="1">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="4">
+      <c r="H52" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="30">
         <v>4</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="10"/>
+      <c r="H53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
+  <mergeCells count="133">
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242B15D-87FE-4533-94EC-CFCF6E989848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09432C16-DE32-4D4E-80F9-6734316D5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -430,6 +430,42 @@
   </si>
   <si>
     <t>Repetir el paso 2 y luego seguir con la siguiente categoria hasta pasar por todas</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Buscar un producto invalido.</t>
+  </si>
+  <si>
+    <t>Producto invalido.</t>
+  </si>
+  <si>
+    <t>Completar con un producto invalido</t>
+  </si>
+  <si>
+    <t>Que la pagina nos indique que el producto que se solicita es invalido o no se encuentra.</t>
+  </si>
+  <si>
+    <t>caracteres especiales en la barra de busqueda.</t>
+  </si>
+  <si>
+    <t>Completar con caracteres especiales "@#$#$!#"</t>
+  </si>
+  <si>
+    <t>Caracteres especiales.</t>
+  </si>
+  <si>
+    <t>No permitir ingresar caracteres especiales, y que aparezca un mensaje indicando el error.</t>
+  </si>
+  <si>
+    <t>Fallo</t>
+  </si>
+  <si>
+    <t>HM-020</t>
+  </si>
+  <si>
+    <t>HM-021</t>
   </si>
 </sst>
 </file>
@@ -454,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,6 +576,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -551,50 +596,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,14 +900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="5" width="34.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
@@ -929,25 +954,25 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -956,7 +981,7 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -964,46 +989,46 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1012,7 +1037,7 @@
       <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -1020,46 +1045,46 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1068,7 +1093,7 @@
       <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -1076,46 +1101,46 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="4" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1124,7 +1149,7 @@
       <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -1132,46 +1157,46 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="4" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -1180,7 +1205,7 @@
       <c r="I10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -1188,43 +1213,43 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="2">
@@ -1236,7 +1261,7 @@
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1244,12 +1269,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
@@ -1259,18 +1284,18 @@
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
@@ -1280,18 +1305,18 @@
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="5">
         <v>4</v>
       </c>
@@ -1301,31 +1326,31 @@
       <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="F16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="10">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -1334,110 +1359,96 @@
       <c r="I16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="5">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="20">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="6" t="s">
+      <c r="H17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="B20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="26">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="10">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -1446,185 +1457,199 @@
       <c r="I20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="20">
+        <v>2</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="1">
+      <c r="K23" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="H24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="4">
+      <c r="K25" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="5">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="H26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="C27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>1</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1635,114 +1660,114 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="1">
         <v>3</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="H29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="C31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="1">
+      <c r="J31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="4">
         <v>2</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="1">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="4">
-        <v>4</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="J32" s="13"/>
       <c r="K32" s="6" t="s">
         <v>20</v>
       </c>
@@ -1755,10 +1780,10 @@
         <v>22</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>25</v>
@@ -1766,19 +1791,19 @@
       <c r="F33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1789,93 +1814,93 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>2</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>57</v>
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="C36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G36" s="7">
         <v>1</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="1">
+      <c r="J36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="1">
         <v>2</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="1">
-        <v>3</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="J37" s="12"/>
       <c r="K37" s="3" t="s">
         <v>20</v>
       </c>
@@ -1887,114 +1912,114 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="4">
         <v>4</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="H39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="C40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="1">
+      <c r="K40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="4">
         <v>2</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="4">
-        <v>3</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="J41" s="13"/>
       <c r="K41" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="C42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="7">
@@ -2006,96 +2031,96 @@
       <c r="I42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>48</v>
+      <c r="J42" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="1">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="J43" s="12"/>
       <c r="K43" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="1">
         <v>3</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J44" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="J44" s="12"/>
       <c r="K44" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="4">
         <v>4</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J45" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="J45" s="13"/>
       <c r="K45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="C46" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="7">
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -2104,241 +2129,425 @@
       <c r="I46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="29"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="30">
+      <c r="G47" s="1">
         <v>2</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="4">
+        <v>3</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="4">
+        <v>4</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="4">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="J54" s="13"/>
+      <c r="K54" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C55" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E55" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F55" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G55" s="7">
         <v>1</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="30">
+      <c r="K55" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="4">
         <v>2</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="10" t="s">
+      <c r="J56" s="13"/>
+      <c r="K56" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D57" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G57" s="7">
         <v>1</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="24">
+      <c r="K57" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="1">
         <v>2</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H58" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="24">
+      <c r="J58" s="12"/>
+      <c r="K58" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="1">
         <v>3</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="23" t="s">
+      <c r="I59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="30">
+      <c r="J59" s="12"/>
+      <c r="K59" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="4">
         <v>4</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="6" t="s">
+      <c r="J60" s="13"/>
+      <c r="K60" s="6" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
+  <mergeCells count="147">
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2353,74 +2562,79 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="J55:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09432C16-DE32-4D4E-80F9-6734316D5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C4331-F7E7-4E08-AC5F-3E7C7A14061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>HM-021</t>
+  </si>
+  <si>
+    <t>IN-001</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,6 +587,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -602,23 +614,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A61" sqref="A61:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,22 +954,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="7">
@@ -981,7 +981,7 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -989,12 +989,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="4">
         <v>2</v>
       </c>
@@ -1004,28 +1004,28 @@
       <c r="I3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="7">
@@ -1037,7 +1037,7 @@
       <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -1045,12 +1045,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="4">
         <v>2</v>
       </c>
@@ -1060,28 +1060,28 @@
       <c r="I5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="7">
@@ -1093,7 +1093,7 @@
       <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -1101,12 +1101,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="4">
         <v>2</v>
       </c>
@@ -1116,28 +1116,28 @@
       <c r="I7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="7">
@@ -1149,7 +1149,7 @@
       <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -1157,12 +1157,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="4">
         <v>2</v>
       </c>
@@ -1172,28 +1172,28 @@
       <c r="I9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="7">
@@ -1205,7 +1205,7 @@
       <c r="I10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -1213,12 +1213,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="4">
         <v>2</v>
       </c>
@@ -1228,28 +1228,28 @@
       <c r="I11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="2">
@@ -1261,7 +1261,7 @@
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1269,12 +1269,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
@@ -1284,18 +1284,18 @@
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
@@ -1305,18 +1305,18 @@
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="5">
         <v>4</v>
       </c>
@@ -1326,28 +1326,28 @@
       <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="10">
@@ -1359,7 +1359,7 @@
       <c r="I16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -1367,54 +1367,54 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="20">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="2">
         <v>2</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="20">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="2">
         <v>3</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="5">
         <v>4</v>
       </c>
@@ -1424,28 +1424,28 @@
       <c r="I19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>142</v>
       </c>
       <c r="G20" s="10">
@@ -1457,7 +1457,7 @@
       <c r="I20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K20" s="8" t="s">
@@ -1465,33 +1465,33 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="20">
+      <c r="A21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="2">
         <v>2</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="5">
         <v>3</v>
       </c>
@@ -1501,28 +1501,28 @@
       <c r="I22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="10">
@@ -1534,7 +1534,7 @@
       <c r="I23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="8" t="s">
@@ -1542,12 +1542,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="5">
         <v>2</v>
       </c>
@@ -1557,28 +1557,28 @@
       <c r="I24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="10">
@@ -1590,7 +1590,7 @@
       <c r="I25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -1598,12 +1598,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="5">
         <v>2</v>
       </c>
@@ -1613,28 +1613,28 @@
       <c r="I26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="13"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="7">
@@ -1646,7 +1646,7 @@
       <c r="I27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K27" s="8" t="s">
@@ -1654,12 +1654,12 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1">
         <v>2</v>
       </c>
@@ -1669,18 +1669,18 @@
       <c r="I28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="1">
         <v>3</v>
       </c>
@@ -1690,18 +1690,18 @@
       <c r="I29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="1">
         <v>4</v>
       </c>
@@ -1711,28 +1711,28 @@
       <c r="I30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="13"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="7">
@@ -1744,7 +1744,7 @@
       <c r="I31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -1752,12 +1752,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="4">
         <v>2</v>
       </c>
@@ -1767,28 +1767,28 @@
       <c r="I32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="13"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="7">
@@ -1800,7 +1800,7 @@
       <c r="I33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K33" s="8" t="s">
@@ -1808,12 +1808,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="1">
         <v>2</v>
       </c>
@@ -1823,18 +1823,18 @@
       <c r="I34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="4">
         <v>3</v>
       </c>
@@ -1844,28 +1844,28 @@
       <c r="I35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="13"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="7">
@@ -1877,7 +1877,7 @@
       <c r="I36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K36" s="8" t="s">
@@ -1885,12 +1885,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="1">
         <v>2</v>
       </c>
@@ -1900,18 +1900,18 @@
       <c r="I37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="1">
         <v>3</v>
       </c>
@@ -1921,18 +1921,18 @@
       <c r="I38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="4">
         <v>4</v>
       </c>
@@ -1942,28 +1942,28 @@
       <c r="I39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="14"/>
       <c r="K39" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="1">
@@ -1975,7 +1975,7 @@
       <c r="I40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K40" s="3" t="s">
@@ -1983,12 +1983,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="4">
         <v>2</v>
       </c>
@@ -1998,28 +1998,28 @@
       <c r="I41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J41" s="13"/>
+      <c r="J41" s="14"/>
       <c r="K41" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="7">
@@ -2031,7 +2031,7 @@
       <c r="I42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K42" s="8" t="s">
@@ -2039,12 +2039,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="1">
         <v>2</v>
       </c>
@@ -2054,18 +2054,18 @@
       <c r="I43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="12"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="1">
         <v>3</v>
       </c>
@@ -2075,18 +2075,18 @@
       <c r="I44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="12"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="4">
         <v>4</v>
       </c>
@@ -2096,28 +2096,28 @@
       <c r="I45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="13"/>
+      <c r="J45" s="14"/>
       <c r="K45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G46" s="7">
@@ -2129,7 +2129,7 @@
       <c r="I46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K46" s="8" t="s">
@@ -2137,12 +2137,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="1">
         <v>2</v>
       </c>
@@ -2152,18 +2152,18 @@
       <c r="I47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="12"/>
+      <c r="J47" s="13"/>
       <c r="K47" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="4">
         <v>3</v>
       </c>
@@ -2173,28 +2173,28 @@
       <c r="I48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J48" s="13"/>
+      <c r="J48" s="14"/>
       <c r="K48" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="7">
@@ -2206,7 +2206,7 @@
       <c r="I49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K49" s="8" t="s">
@@ -2214,12 +2214,12 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="1">
         <v>2</v>
       </c>
@@ -2229,18 +2229,18 @@
       <c r="I50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="13"/>
       <c r="K50" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="1">
         <v>3</v>
       </c>
@@ -2250,18 +2250,18 @@
       <c r="I51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="12"/>
+      <c r="J51" s="13"/>
       <c r="K51" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="4">
         <v>4</v>
       </c>
@@ -2271,28 +2271,28 @@
       <c r="I52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="13"/>
+      <c r="J52" s="14"/>
       <c r="K52" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G53" s="7">
@@ -2304,7 +2304,7 @@
       <c r="I53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K53" s="3" t="s">
@@ -2312,12 +2312,12 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="4">
         <v>2</v>
       </c>
@@ -2327,28 +2327,28 @@
       <c r="I54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J54" s="13"/>
+      <c r="J54" s="14"/>
       <c r="K54" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G55" s="7">
@@ -2360,7 +2360,7 @@
       <c r="I55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K55" s="3" t="s">
@@ -2368,12 +2368,12 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="4">
         <v>2</v>
       </c>
@@ -2383,28 +2383,28 @@
       <c r="I56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J56" s="13"/>
+      <c r="J56" s="14"/>
       <c r="K56" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G57" s="7">
@@ -2416,7 +2416,7 @@
       <c r="I57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -2424,12 +2424,12 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="1">
         <v>2</v>
       </c>
@@ -2439,18 +2439,18 @@
       <c r="I58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="12"/>
+      <c r="J58" s="13"/>
       <c r="K58" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="1">
         <v>3</v>
       </c>
@@ -2460,18 +2460,18 @@
       <c r="I59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="13"/>
       <c r="K59" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="4">
         <v>4</v>
       </c>
@@ -2481,13 +2481,151 @@
       <c r="I60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J60" s="13"/>
+      <c r="J60" s="14"/>
       <c r="K60" s="6" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+    </row>
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="148">
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
@@ -2512,129 +2650,6 @@
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="J55:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C4331-F7E7-4E08-AC5F-3E7C7A14061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C13F08-435F-46F0-8FF9-109BBFADF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="186">
   <si>
     <t>ID</t>
   </si>
@@ -469,6 +469,120 @@
   </si>
   <si>
     <t>IN-001</t>
+  </si>
+  <si>
+    <t>https://www.maximus.com.ar/LOGIN/login/maximus.aspx</t>
+  </si>
+  <si>
+    <t>Hacer click en el campo "Ingresar correo…"</t>
+  </si>
+  <si>
+    <t>Que se visualice el Email en el campo.</t>
+  </si>
+  <si>
+    <t>Hacer click en el campo "Ingresar clave…"</t>
+  </si>
+  <si>
+    <t>Completar con la contraseña.</t>
+  </si>
+  <si>
+    <t>Completar con la Email.</t>
+  </si>
+  <si>
+    <t>Que se visualice la contraseña en el campo.</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "LOGIN"</t>
+  </si>
+  <si>
+    <t>El usuario accede, y se carga la Home nuevamente con la cuenta ya iniciada.</t>
+  </si>
+  <si>
+    <t>Login/Ingresar con datos validos.</t>
+  </si>
+  <si>
+    <t>Poseer un correo y contraseña ya registrado. Acceso a internet. Explorador chrome o similar.</t>
+  </si>
+  <si>
+    <t>Correo: Admin123@gmail.com Contraseña: Admin</t>
+  </si>
+  <si>
+    <t>IN-002</t>
+  </si>
+  <si>
+    <t>Hacer click en el texto "Registrarme"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana que permite realizar el registro de un nuevo usuario.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del Login.</t>
+  </si>
+  <si>
+    <t>Link del texto "Resistrarme"</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del link del texto "Registrarme"</t>
+  </si>
+  <si>
+    <t>Link del texto "Olvide mi Clave"</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del link del texto "Olvide mi Clave"</t>
+  </si>
+  <si>
+    <t>Hacer click en el texto "Olvide mi Clave"</t>
+  </si>
+  <si>
+    <t>Que aparezca la ventana emergente que permite recuperar la clave al usuario.</t>
+  </si>
+  <si>
+    <t>IN-003</t>
+  </si>
+  <si>
+    <t>IN-004</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del inicio de sesion con facebook.</t>
+  </si>
+  <si>
+    <t>Que aparezca la ventana emergente que permite ingresar con una cuenta de Facebook.</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "Continue as (cuenta que tenga la persona ingresada en facebook)"</t>
+  </si>
+  <si>
+    <t>Link del texto "Politica de Privacidad"</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento del link del texto "Politica de Privacidad"</t>
+  </si>
+  <si>
+    <t>Hacer click en el texto "Politica de Privacidad"</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana que contiene la informacion de las politicas de la empresa.</t>
+  </si>
+  <si>
+    <t>IN-005</t>
+  </si>
+  <si>
+    <t>IN-006</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "Recuperar Clave"</t>
+  </si>
+  <si>
+    <t>Que se envie un Email de recuperacion al usuario.</t>
+  </si>
+  <si>
+    <t>Funcion "Recuperar Clave"</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamento de "Recuperar Clave"</t>
+  </si>
+  <si>
+    <t>Inicio de sesion con Facebook.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -614,10 +728,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -900,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +1049,7 @@
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="64.140625" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" customWidth="1"/>
+    <col min="9" max="9" width="70.140625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2424,7 +2559,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2445,7 +2580,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2487,144 +2622,533 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="23" t="s">
         <v>147</v>
       </c>
+      <c r="B61" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="24">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20">
+        <v>2</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="21"/>
+      <c r="K62" s="26" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20">
+        <v>3</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="26" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20">
+        <v>4</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="21"/>
+      <c r="K64" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20">
+        <v>5</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J65" s="21"/>
+      <c r="K65" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="27">
+        <v>6</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="24">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="27">
+        <v>2</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="24">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="27">
+        <v>2</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="20">
+        <v>1</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20">
+        <v>2</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J72" s="21"/>
+      <c r="K72" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20">
+        <v>3</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20">
+        <v>4</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J74" s="21"/>
+      <c r="K74" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="20">
+        <v>5</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J75" s="14"/>
+      <c r="K75" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="24">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="27">
+        <v>2</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="24">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="27">
+        <v>2</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J79" s="14"/>
+      <c r="K79" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="148">
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
+  <mergeCells count="189">
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="F71:F75"/>
+    <mergeCell ref="J71:J75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="J61:J66"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="F61:F66"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="D20:D22"/>
@@ -2649,7 +3173,128 @@
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C13F08-435F-46F0-8FF9-109BBFADF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211CAF21-61A1-46BA-9EE6-544A2A71464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -471,9 +471,6 @@
     <t>IN-001</t>
   </si>
   <si>
-    <t>https://www.maximus.com.ar/LOGIN/login/maximus.aspx</t>
-  </si>
-  <si>
     <t>Hacer click en el campo "Ingresar correo…"</t>
   </si>
   <si>
@@ -583,6 +580,192 @@
   </si>
   <si>
     <t>Inicio de sesion con Facebook.</t>
+  </si>
+  <si>
+    <t>Login/Ingresar con datos invalidos.</t>
+  </si>
+  <si>
+    <t>Acceso a internet. Explorador chrome o similar.</t>
+  </si>
+  <si>
+    <t>Email y contraseña invalidos.</t>
+  </si>
+  <si>
+    <t>Completar con la Email invalido.</t>
+  </si>
+  <si>
+    <t>Completar con la contraseña invalida.</t>
+  </si>
+  <si>
+    <t>El no se perimita al usuario acceder y que se indique el error.</t>
+  </si>
+  <si>
+    <t>IN-007</t>
+  </si>
+  <si>
+    <t>Ingresar a https://www.maximus.com.ar/LOGIN/login/maximus.aspx</t>
+  </si>
+  <si>
+    <t>Ingresar a https://www.maximus.com.ar/REGISTRO/N1/maximus.aspx</t>
+  </si>
+  <si>
+    <t>Registrarse con datos validos.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del registro.</t>
+  </si>
+  <si>
+    <t>Datos validos.</t>
+  </si>
+  <si>
+    <t>Completar todos los campos con datos validos.</t>
+  </si>
+  <si>
+    <t>Que los campos muestren la informacion cargada en cada uno de ellos.</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "Registrarse".</t>
+  </si>
+  <si>
+    <t>RG-001</t>
+  </si>
+  <si>
+    <t>RG-002</t>
+  </si>
+  <si>
+    <t>Que se registre el nuevo usuario con la informacion cargada.</t>
+  </si>
+  <si>
+    <t>Que no se registre el nuevo usuario con la informacion cargada y se indique el error.</t>
+  </si>
+  <si>
+    <t>Registrarse con datos invalidos/caracteres especiales.</t>
+  </si>
+  <si>
+    <t>Datos invalidos/caracteres especiales "#$!#@!#!".</t>
+  </si>
+  <si>
+    <t>Completar todos los campos con datos invalidos/caracteres especiales "#$!#@!#!".</t>
+  </si>
+  <si>
+    <t>CRT-002</t>
+  </si>
+  <si>
+    <t>CRT-001</t>
+  </si>
+  <si>
+    <t>Agregar producto al carrito.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del carrito.</t>
+  </si>
+  <si>
+    <t>Buscar y cargar un producto cualquiera al carrito.</t>
+  </si>
+  <si>
+    <t>Que se cargue correctamente el producto elegido al carrito.</t>
+  </si>
+  <si>
+    <t>Producto en carrito.</t>
+  </si>
+  <si>
+    <t>Ingresar a https://www.maximus.com.ar/CHECKOUT/carrito/maximus.aspx</t>
+  </si>
+  <si>
+    <t>Que se elimine correctamente el producto del carrito.</t>
+  </si>
+  <si>
+    <t>CRT-003</t>
+  </si>
+  <si>
+    <t>Continuar al pago.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del boton "continuar".</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton "CONTINUAR"</t>
+  </si>
+  <si>
+    <t>Que aparezca la ventana emergente que indica que hay que iniciar sesion antes de proseguir con el pago.</t>
+  </si>
+  <si>
+    <t>Eliminar producto del carrito con boton rojo.</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton con forma de "Tacho" con fondo rojo.</t>
+  </si>
+  <si>
+    <t>CRT-004</t>
+  </si>
+  <si>
+    <t>Hacer click en el boton con forma de "Tacho" color celeste.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del tacho con fondo rojo.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento del tacho color celeste.</t>
+  </si>
+  <si>
+    <t>Eliminar producto del carrito con tacho celeste.</t>
+  </si>
+  <si>
+    <t>CRT-005</t>
+  </si>
+  <si>
+    <t>Sumar/sacar producto del carrito.</t>
+  </si>
+  <si>
+    <t>Hacer click en el "+".</t>
+  </si>
+  <si>
+    <t>Que se sume correctamente una unidad del producto seleccionado.</t>
+  </si>
+  <si>
+    <t>Hacer click en el "-".</t>
+  </si>
+  <si>
+    <t>Que se reste correctamente una unidad del producto seleccionado.</t>
+  </si>
+  <si>
+    <t>PG-001</t>
+  </si>
+  <si>
+    <t>Que se redireccione hacia la ventana que permite completar los datos para realizar el pago.</t>
+  </si>
+  <si>
+    <t>Que se efectue correctamente el pago del producto seleccionado.</t>
+  </si>
+  <si>
+    <t>Probar el correcto funcionamiento de los pagos.</t>
+  </si>
+  <si>
+    <t>PG-002</t>
+  </si>
+  <si>
+    <t>Completar pago con datos validos.</t>
+  </si>
+  <si>
+    <t>Completar pago con datos invalidos.</t>
+  </si>
+  <si>
+    <t>Poseer un correo y contraseña ya registrado. Acceso a internet. Explorador Chrome o similar.</t>
+  </si>
+  <si>
+    <t>Que no se efectue correctamente el pago del producto seleccionado y se indique el error.</t>
+  </si>
+  <si>
+    <t>Completar los campos con datos validos.</t>
+  </si>
+  <si>
+    <t>Completar los campos con datos invalidos.</t>
+  </si>
+  <si>
+    <t>Cuenta valida, producto en carrito y datos validos.</t>
+  </si>
+  <si>
+    <t>Cuenta valida, producto en carrito y datos invalidos.</t>
   </si>
 </sst>
 </file>
@@ -607,7 +790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +818,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -713,13 +914,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -728,31 +938,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1035,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1317,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1124,7 +1352,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1145,7 +1373,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1180,7 +1408,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1201,7 +1429,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1236,7 +1464,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1257,7 +1485,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1292,7 +1520,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1313,7 +1541,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1348,7 +1576,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1369,7 +1597,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1404,7 +1632,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1425,7 +1653,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1446,7 +1674,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1467,7 +1695,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1502,7 +1730,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1523,7 +1751,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1544,7 +1772,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -1565,7 +1793,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1600,7 +1828,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1621,7 +1849,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1642,7 +1870,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -1677,7 +1905,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1698,7 +1926,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1733,7 +1961,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1754,7 +1982,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -1789,7 +2017,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1810,7 +2038,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1831,7 +2059,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1852,7 +2080,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1887,7 +2115,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1908,7 +2136,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -1943,7 +2171,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1964,7 +2192,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -1985,7 +2213,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -2020,7 +2248,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2041,7 +2269,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -2062,7 +2290,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2083,7 +2311,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -2118,7 +2346,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -2139,7 +2367,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="18" t="s">
         <v>110</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -2174,7 +2402,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -2195,7 +2423,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2216,7 +2444,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -2237,7 +2465,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -2272,7 +2500,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -2293,7 +2521,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -2314,7 +2542,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2349,7 +2577,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -2370,7 +2598,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -2391,7 +2619,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2412,13 +2640,13 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -2447,9 +2675,9 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="19"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -2468,13 +2696,13 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="12" t="s">
@@ -2503,9 +2731,9 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="19"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -2524,7 +2752,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="18" t="s">
         <v>146</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -2559,7 +2787,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2580,7 +2808,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2601,7 +2829,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2622,29 +2850,29 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G61" s="24">
+      <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>12</v>
@@ -2657,104 +2885,104 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20">
+      <c r="A62" s="16"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="1">
         <v>2</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="J63" s="13"/>
+      <c r="K63" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J62" s="21"/>
-      <c r="K62" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20">
-        <v>3</v>
-      </c>
-      <c r="H63" s="22" t="s">
+      <c r="J64" s="13"/>
+      <c r="K64" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="1">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I63" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20">
-        <v>4</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20">
-        <v>5</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="26" t="s">
+      <c r="J65" s="13"/>
+      <c r="K65" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="27">
+      <c r="G66" s="4">
         <v>6</v>
       </c>
       <c r="H66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="6" t="s">
@@ -2762,29 +2990,29 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>160</v>
+      <c r="A67" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="24">
+        <v>187</v>
+      </c>
+      <c r="G67" s="7">
         <v>1</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>12</v>
@@ -2797,483 +3025,1134 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="27">
+      <c r="A68" s="16"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="1">
         <v>2</v>
       </c>
-      <c r="H68" s="27" t="s">
+      <c r="H68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" s="13"/>
+      <c r="K68" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J69" s="13"/>
+      <c r="K69" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="1">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="13"/>
+      <c r="K70" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="1">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" s="13"/>
+      <c r="K71" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="4">
+        <v>6</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="4">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I68" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="J74" s="14"/>
+      <c r="K74" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B75" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C75" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="E75" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="I76" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J76" s="14"/>
+      <c r="K76" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F77" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G77" s="1">
         <v>1</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H77" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J78" s="13"/>
+      <c r="K78" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" s="13"/>
+      <c r="K79" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J80" s="13"/>
+      <c r="K80" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="1">
+        <v>5</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J81" s="14"/>
+      <c r="K81" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="27">
+      <c r="K82" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="4">
         <v>2</v>
       </c>
-      <c r="H70" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" s="12" t="s">
+      <c r="H83" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J83" s="14"/>
+      <c r="K83" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="C84" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F84" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G84" s="7">
         <v>1</v>
       </c>
-      <c r="H71" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I71" s="22" t="s">
+      <c r="H84" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J84" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K71" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20">
+      <c r="K84" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="4">
         <v>2</v>
       </c>
-      <c r="H72" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="J72" s="21"/>
-      <c r="K72" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20">
+      <c r="H85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J85" s="14"/>
+      <c r="K85" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="29">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="26">
+        <v>2</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J87" s="27"/>
+      <c r="K87" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="31">
         <v>3</v>
       </c>
-      <c r="H73" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20">
-        <v>4</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J74" s="21"/>
-      <c r="K74" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="20">
-        <v>5</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" s="12" t="s">
+      <c r="H88" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J88" s="14"/>
+      <c r="K88" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" s="29">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="26">
+        <v>2</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J90" s="27"/>
+      <c r="K90" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="31">
+        <v>3</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I91" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J91" s="14"/>
+      <c r="K91" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E76" s="12" t="s">
+      <c r="C92" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F92" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="24">
+      <c r="G92" s="29">
         <v>1</v>
       </c>
-      <c r="H76" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I76" s="7" t="s">
+      <c r="H92" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J92" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K76" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="27">
+      <c r="K92" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="34"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="31">
         <v>2</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I77" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B78" s="12" t="s">
+      <c r="H93" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J93" s="14"/>
+      <c r="K93" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="C94" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="24">
+      <c r="F94" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G94" s="26">
         <v>1</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I78" s="7" t="s">
+      <c r="H94" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J94" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="27">
+      <c r="K94" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="26">
         <v>2</v>
       </c>
-      <c r="H79" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="6" t="s">
+      <c r="H95" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J95" s="27"/>
+      <c r="K95" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="34"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="26">
+        <v>3</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J96" s="14"/>
+      <c r="K96" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97" s="29">
+        <v>1</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="34"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="31">
+        <v>2</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I98" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J98" s="14"/>
+      <c r="K98" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G99" s="26">
+        <v>1</v>
+      </c>
+      <c r="H99" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="34"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="26">
+        <v>2</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I100" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J100" s="14"/>
+      <c r="K100" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" s="29">
+        <v>1</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="31">
+        <v>2</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J102" s="14"/>
+      <c r="K102" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G103" s="29">
+        <v>1</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="36"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="26">
+        <v>2</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="J104" s="27"/>
+      <c r="K104" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="31">
+        <v>3</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I105" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J105" s="14"/>
+      <c r="K105" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" s="29">
+        <v>1</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="36"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26">
+        <v>2</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="J107" s="27"/>
+      <c r="K107" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="37"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="31">
+        <v>3</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="I108" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J108" s="14"/>
+      <c r="K108" s="6" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="189">
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="F71:F75"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="J61:J66"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="E61:E66"/>
-    <mergeCell ref="F61:F66"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
+  <mergeCells count="259">
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="J67:J72"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="J57:J60"/>
     <mergeCell ref="A57:A60"/>
@@ -3295,6 +4174,174 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="J61:J66"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="F61:F66"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="J82:J83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Proyectos\ProyectoMaximus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211CAF21-61A1-46BA-9EE6-544A2A71464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B06AB0-0822-4303-A539-D3D3D5ACAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -468,9 +468,6 @@
     <t>HM-021</t>
   </si>
   <si>
-    <t>IN-001</t>
-  </si>
-  <si>
     <t>Hacer click en el campo "Ingresar correo…"</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>Correo: Admin123@gmail.com Contraseña: Admin</t>
   </si>
   <si>
-    <t>IN-002</t>
-  </si>
-  <si>
     <t>Hacer click en el texto "Registrarme"</t>
   </si>
   <si>
@@ -516,15 +510,9 @@
     <t>Probar el correcto funcionamiento del Login.</t>
   </si>
   <si>
-    <t>Link del texto "Resistrarme"</t>
-  </si>
-  <si>
     <t>Probar el correcto funcionamento del link del texto "Registrarme"</t>
   </si>
   <si>
-    <t>Link del texto "Olvide mi Clave"</t>
-  </si>
-  <si>
     <t>Probar el correcto funcionamento del link del texto "Olvide mi Clave"</t>
   </si>
   <si>
@@ -534,12 +522,6 @@
     <t>Que aparezca la ventana emergente que permite recuperar la clave al usuario.</t>
   </si>
   <si>
-    <t>IN-003</t>
-  </si>
-  <si>
-    <t>IN-004</t>
-  </si>
-  <si>
     <t>Probar el correcto funcionamiento del inicio de sesion con facebook.</t>
   </si>
   <si>
@@ -549,9 +531,6 @@
     <t>Hacer click en el boton "Continue as (cuenta que tenga la persona ingresada en facebook)"</t>
   </si>
   <si>
-    <t>Link del texto "Politica de Privacidad"</t>
-  </si>
-  <si>
     <t>Probar el correcto funcionamento del link del texto "Politica de Privacidad"</t>
   </si>
   <si>
@@ -561,21 +540,12 @@
     <t>Que se redireccione hacia la ventana que contiene la informacion de las politicas de la empresa.</t>
   </si>
   <si>
-    <t>IN-005</t>
-  </si>
-  <si>
-    <t>IN-006</t>
-  </si>
-  <si>
     <t>Hacer click en el boton "Recuperar Clave"</t>
   </si>
   <si>
     <t>Que se envie un Email de recuperacion al usuario.</t>
   </si>
   <si>
-    <t>Funcion "Recuperar Clave"</t>
-  </si>
-  <si>
     <t>Probar el correcto funcionamento de "Recuperar Clave"</t>
   </si>
   <si>
@@ -600,9 +570,6 @@
     <t>El no se perimita al usuario acceder y que se indique el error.</t>
   </si>
   <si>
-    <t>IN-007</t>
-  </si>
-  <si>
     <t>Ingresar a https://www.maximus.com.ar/LOGIN/login/maximus.aspx</t>
   </si>
   <si>
@@ -766,6 +733,48 @@
   </si>
   <si>
     <t>Cuenta valida, producto en carrito y datos invalidos.</t>
+  </si>
+  <si>
+    <t>LG-001</t>
+  </si>
+  <si>
+    <t>LG-002</t>
+  </si>
+  <si>
+    <t>LG-003</t>
+  </si>
+  <si>
+    <t>LG-004</t>
+  </si>
+  <si>
+    <t>LG-005</t>
+  </si>
+  <si>
+    <t>LG-006</t>
+  </si>
+  <si>
+    <t>LG-007</t>
+  </si>
+  <si>
+    <t>Link del texto "Resistrarme".</t>
+  </si>
+  <si>
+    <t>Link del texto "Olvide mi Clave".</t>
+  </si>
+  <si>
+    <t>Funcion "Recuperar Clave".</t>
+  </si>
+  <si>
+    <t>Completar con el Email.</t>
+  </si>
+  <si>
+    <t>Poseer un correo ya registrado. Acceso a internet. Explorador Chrome o similar.</t>
+  </si>
+  <si>
+    <t>Correo: Admin123@gmail.com</t>
+  </si>
+  <si>
+    <t>Link del texto "Politica de Privacidad".</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,28 +2860,28 @@
     </row>
     <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>12</v>
@@ -2895,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>14</v>
@@ -2916,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="3" t="s">
@@ -2937,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>14</v>
@@ -2958,10 +2967,10 @@
         <v>5</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="3" t="s">
@@ -2979,10 +2988,10 @@
         <v>6</v>
       </c>
       <c r="H66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="6" t="s">
@@ -2991,28 +3000,28 @@
     </row>
     <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G67" s="7">
         <v>1</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>12</v>
@@ -3035,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>14</v>
@@ -3056,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="3" t="s">
@@ -3077,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>14</v>
@@ -3098,10 +3107,10 @@
         <v>5</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="3" t="s">
@@ -3119,10 +3128,10 @@
         <v>6</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J72" s="14"/>
       <c r="K72" s="6" t="s">
@@ -3131,16 +3140,16 @@
     </row>
     <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>25</v>
@@ -3152,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>12</v>
@@ -3175,10 +3184,10 @@
         <v>2</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J74" s="14"/>
       <c r="K74" s="6" t="s">
@@ -3187,16 +3196,16 @@
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>25</v>
@@ -3208,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>12</v>
@@ -3231,10 +3240,10 @@
         <v>2</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J76" s="14"/>
       <c r="K76" s="6" t="s">
@@ -3243,28 +3252,28 @@
     </row>
     <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>12</v>
@@ -3287,10 +3296,10 @@
         <v>2</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J78" s="13"/>
       <c r="K78" s="3" t="s">
@@ -3308,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>14</v>
@@ -3329,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="3" t="s">
@@ -3350,10 +3359,10 @@
         <v>5</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J81" s="14"/>
       <c r="K81" s="6" t="s">
@@ -3362,16 +3371,16 @@
     </row>
     <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>25</v>
@@ -3383,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>12</v>
@@ -3406,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J83" s="14"/>
       <c r="K83" s="6" t="s">
@@ -3418,16 +3427,16 @@
     </row>
     <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>25</v>
@@ -3439,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>12</v>
@@ -3462,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J85" s="14"/>
       <c r="K85" s="6" t="s">
@@ -3474,28 +3483,28 @@
     </row>
     <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G86" s="29">
         <v>1</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>12</v>
@@ -3518,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J87" s="27"/>
       <c r="K87" s="24" t="s">
@@ -3539,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I88" s="31" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="6" t="s">
@@ -3551,28 +3560,28 @@
     </row>
     <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G89" s="29">
         <v>1</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>12</v>
@@ -3595,10 +3604,10 @@
         <v>2</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J90" s="27"/>
       <c r="K90" s="24" t="s">
@@ -3616,10 +3625,10 @@
         <v>3</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I91" s="31" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J91" s="14"/>
       <c r="K91" s="6" t="s">
@@ -3628,16 +3637,16 @@
     </row>
     <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>25</v>
@@ -3672,10 +3681,10 @@
         <v>2</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="J93" s="14"/>
       <c r="K93" s="6" t="s">
@@ -3684,28 +3693,28 @@
     </row>
     <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G94" s="26">
         <v>1</v>
       </c>
       <c r="H94" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>12</v>
@@ -3728,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J95" s="27"/>
       <c r="K95" s="24" t="s">
@@ -3749,10 +3758,10 @@
         <v>3</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J96" s="14"/>
       <c r="K96" s="6" t="s">
@@ -3761,28 +3770,28 @@
     </row>
     <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G97" s="29">
         <v>1</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>12</v>
@@ -3805,10 +3814,10 @@
         <v>2</v>
       </c>
       <c r="H98" s="31" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I98" s="31" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J98" s="14"/>
       <c r="K98" s="6" t="s">
@@ -3817,28 +3826,28 @@
     </row>
     <row r="99" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G99" s="26">
         <v>1</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>12</v>
@@ -3861,10 +3870,10 @@
         <v>2</v>
       </c>
       <c r="H100" s="31" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I100" s="31" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J100" s="14"/>
       <c r="K100" s="6" t="s">
@@ -3873,28 +3882,28 @@
     </row>
     <row r="101" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G101" s="29">
         <v>1</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>12</v>
@@ -3917,10 +3926,10 @@
         <v>2</v>
       </c>
       <c r="H102" s="31" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I102" s="31" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="J102" s="14"/>
       <c r="K102" s="6" t="s">
@@ -3929,28 +3938,28 @@
     </row>
     <row r="103" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="35" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G103" s="29">
         <v>1</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>12</v>
@@ -3973,10 +3982,10 @@
         <v>2</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J104" s="27"/>
       <c r="K104" s="24" t="s">
@@ -3994,10 +4003,10 @@
         <v>3</v>
       </c>
       <c r="H105" s="31" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I105" s="31" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J105" s="14"/>
       <c r="K105" s="6" t="s">
@@ -4006,28 +4015,28 @@
     </row>
     <row r="106" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="35" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G106" s="29">
         <v>1</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>12</v>
@@ -4050,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J107" s="27"/>
       <c r="K107" s="24" t="s">
@@ -4071,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="H108" s="31" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="I108" s="31" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="6" t="s">
